--- a/db/tests/mock_results.xlsx
+++ b/db/tests/mock_results.xlsx
@@ -4,15 +4,83 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="12300"/>
+    <workbookView xWindow="720" yWindow="465" windowWidth="27555" windowHeight="12240"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="BIOQC_SELECTED_SAMPLES_TSET" sheetId="1" r:id="rId1"/>
+    <sheet name="BIOQC_RES_TSET" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
+  <si>
+    <t>GSM1234</t>
+  </si>
+  <si>
+    <t>colon</t>
+  </si>
+  <si>
+    <t>gtex_all</t>
+  </si>
+  <si>
+    <t>gtex_solid</t>
+  </si>
+  <si>
+    <t>intestine</t>
+  </si>
+  <si>
+    <t>jejunum</t>
+  </si>
+  <si>
+    <t>GSM2222</t>
+  </si>
+  <si>
+    <t>GSM</t>
+  </si>
+  <si>
+    <t>FOUND_SIG</t>
+  </si>
+  <si>
+    <t>FOUND_SIG_PVALUE</t>
+  </si>
+  <si>
+    <t>FOUND_SIG_NAME</t>
+  </si>
+  <si>
+    <t>FOUND_TGROUP</t>
+  </si>
+  <si>
+    <t>TISSUE_SET</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>TISSUE</t>
+  </si>
+  <si>
+    <t>TGROUP</t>
+  </si>
+  <si>
+    <t>EXP_SIG</t>
+  </si>
+  <si>
+    <t>EXP_SIG_NAME</t>
+  </si>
+  <si>
+    <t>EXP_SIG_PVALUE</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>cutoff value added, result missing</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -46,8 +114,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,24 +418,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>543</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>544</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>543</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>543</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>544</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>543</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>543</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>544</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1E-10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>600</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>543</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>544</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1E-10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>600</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/db/tests/mock_results.xlsx
+++ b/db/tests/mock_results.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="465" windowWidth="27555" windowHeight="12240"/>
+    <workbookView xWindow="13740" yWindow="30" windowWidth="15135" windowHeight="12795" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="BIOQC_SELECTED_SAMPLES_TSET" sheetId="1" r:id="rId1"/>
     <sheet name="BIOQC_RES_TSET" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="BIOQC_TISSUE_ENRICHMENT" sheetId="3" r:id="rId3"/>
+    <sheet name="BIOQC_TISSUE_ENRICHMENT2" sheetId="4" r:id="rId4"/>
+    <sheet name="BIOQC_CONTAM_STATS" sheetId="5" r:id="rId5"/>
+    <sheet name="BIOQC_TISSUE_MIGRATION" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="35">
   <si>
     <t>GSM1234</t>
   </si>
@@ -39,6 +42,12 @@
     <t>GSM2222</t>
   </si>
   <si>
+    <t>GSM7777</t>
+  </si>
+  <si>
+    <t>liver</t>
+  </si>
+  <si>
     <t>GSM</t>
   </si>
   <si>
@@ -79,6 +88,42 @@
   </si>
   <si>
     <t>cutoff value added, result missing</t>
+  </si>
+  <si>
+    <t>ENRICHMENT_RATIO</t>
+  </si>
+  <si>
+    <t>MIN_ENRICHMENT_RATIO</t>
+  </si>
+  <si>
+    <t>RK</t>
+  </si>
+  <si>
+    <t>contamination</t>
+  </si>
+  <si>
+    <t>ORGANISM</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>homo sapiens</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>ORIGIN</t>
+  </si>
+  <si>
+    <t>DESTINATION</t>
   </si>
 </sst>
 </file>
@@ -418,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,28 +479,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -550,7 +595,7 @@
         <v>0.1</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -576,7 +621,7 @@
         <v>0.1</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -602,7 +647,33 @@
         <v>0.1</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -612,10 +683,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,22 +700,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -698,10 +769,10 @@
         <v>0.01</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -758,12 +829,32 @@
         <v>0.01</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>777</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.0000000000000001E-30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -774,12 +865,885 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>543</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H2">
+        <v>600</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1">
+        <f>LOG10(G2/J2)</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>544</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1E-10</v>
+      </c>
+      <c r="H3">
+        <v>600</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3" si="0">LOG10(G3/J3)</f>
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>543</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H4">
+        <v>544</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1E-10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <f>LOG10(G4/J4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>543</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H5">
+        <v>600</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1">
+        <f>LOG10(G5/J5)</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>543</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>544</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>543</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <v>777</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.0000000000000001E-30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>600</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-8</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>544</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>600</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>-3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>777</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>600</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>2000</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>544</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>2000</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>2000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>2000</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>777</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>2004</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>600</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-8</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>544</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>600</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>-3</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>777</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>